--- a/assets/custom_meta_fields/custom_fields_MPXV_metadata_Sample_Run_1.xlsx
+++ b/assets/custom_meta_fields/custom_fields_MPXV_metadata_Sample_Run_1.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankushgupta/Documents/tostadas/assets/custom_meta_fields/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C29379-ACB1-7D44-B89A-1789603997D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="MPXV_Metadata"/>
-    <sheet r:id="rId2" sheetId="2" name="MPXV_Examples"/>
-    <sheet r:id="rId3" sheetId="3" name="MPOX_Template"/>
-    <sheet r:id="rId4" sheetId="4" name="MPOX_metadata_template"/>
-    <sheet r:id="rId5" sheetId="5" name="Description"/>
-    <sheet r:id="rId6" sheetId="6" name="Library and Platform Names"/>
+    <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="MPXV_Examples" sheetId="2" r:id="rId2"/>
+    <sheet name="MPOX_Template" sheetId="3" r:id="rId3"/>
+    <sheet name="MPOX_metadata_template" sheetId="4" r:id="rId4"/>
+    <sheet name="Description" sheetId="5" r:id="rId5"/>
+    <sheet name="Library and Platform Names" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="433">
   <si>
     <t>Strategy</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t> </t>
   </si>
   <si>
     <t>WGA</t>
@@ -1294,14 +1300,38 @@
   </si>
   <si>
     <t>OH0002</t>
+  </si>
+  <si>
+    <t>fasta_file_name</t>
+  </si>
+  <si>
+    <t>FL0004_1.fasta</t>
+  </si>
+  <si>
+    <t>FL0015_2.fasta</t>
+  </si>
+  <si>
+    <t>IL0005_3.fasta</t>
+  </si>
+  <si>
+    <t>NY0006_4.fasta</t>
+  </si>
+  <si>
+    <t>NY0007_5.fasta</t>
+  </si>
+  <si>
+    <t>OH0002_6.fasta</t>
+  </si>
+  <si>
+    <t>TX0001_7.fasta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1363,7 +1393,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1376,14 +1406,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9c0006"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF9c0006"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1397,57 +1427,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8faadc"/>
+        <fgColor rgb="FF8FAADC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa5a5a5"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFfbe5d6"/>
+        <fgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffe699"/>
+        <fgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdeebf7"/>
+        <fgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFafabab"/>
+        <fgColor rgb="FFAFABAB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFfce4d6"/>
+        <fgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFe2f0d9"/>
+        <fgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd6dce5"/>
+        <fgColor rgb="FFD6DCE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc7ce"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1483,31 +1513,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color rgb="FF3f3f3f"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="double">
-        <color rgb="FF3f3f3f"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="double">
-        <color rgb="FF3f3f3f"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3f3f3f"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1525,13 +1555,13 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1539,170 +1569,155 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="11" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1713,10 +1728,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1754,71 +1769,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1846,7 +1861,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1869,11 +1884,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1882,13 +1897,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1898,7 +1913,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1907,7 +1922,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1916,7 +1931,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1924,10 +1939,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1992,2444 +2007,996 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AP10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="38" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="13.5" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="27" t="s">
+    </row>
+    <row r="2" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AC2" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="AF2" s="27" t="s">
+      <c r="AF2" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AH2" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="27" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="AK2" s="27" t="s">
+      <c r="AK2" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="28" t="s">
+      <c r="AM2" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="AN2" s="28" t="s">
+      <c r="AN2" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="AO2" s="28" t="s">
+      <c r="AO2" s="21" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10" t="s">
+      <c r="AP2" s="45" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>379</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>381</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" t="s">
         <v>350</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" t="s">
         <v>307</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" t="s">
         <v>262</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" t="s">
         <v>382</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="M3" t="s">
         <v>383</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10" t="s">
+      <c r="O3" s="36"/>
+      <c r="S3" t="s">
         <v>384</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="16">
+      <c r="U3" s="14">
         <v>247</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" t="s">
         <v>385</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" t="s">
         <v>216</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" t="s">
         <v>310</v>
       </c>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" t="s">
         <v>386</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" t="s">
         <v>387</v>
       </c>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="16" t="s">
+      <c r="AE3" s="36"/>
+      <c r="AM3" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="AN3" s="22">
+      <c r="AN3" s="17">
         <v>50</v>
       </c>
-      <c r="AO3" s="16">
+      <c r="AO3" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10" t="s">
+      <c r="AP3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" t="s">
         <v>381</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" t="s">
         <v>350</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" t="s">
         <v>307</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" t="s">
         <v>392</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="M4" t="s">
         <v>393</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10" t="s">
+      <c r="O4" s="36"/>
+      <c r="S4" t="s">
         <v>394</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="16">
+      <c r="U4" s="14">
         <v>40</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" t="s">
         <v>395</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" t="s">
         <v>216</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" t="s">
         <v>73</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" t="s">
         <v>85</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" t="s">
         <v>310</v>
       </c>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" t="s">
         <v>396</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" t="s">
         <v>397</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="16">
+      <c r="AE4" s="36"/>
+      <c r="AM4" s="14">
         <v>5</v>
       </c>
-      <c r="AN4" s="18">
+      <c r="AN4" s="16">
         <v>3.5</v>
       </c>
-      <c r="AO4" s="16">
+      <c r="AO4" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10" t="s">
+      <c r="AP4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>398</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>399</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="G5" t="s">
         <v>381</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" t="s">
         <v>350</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" t="s">
         <v>307</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" t="s">
         <v>401</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
+      <c r="M5" t="s">
         <v>402</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10" t="s">
+      <c r="O5" s="36"/>
+      <c r="S5" t="s">
         <v>403</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="16">
+      <c r="U5" s="14">
         <v>121</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" t="s">
         <v>404</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" t="s">
         <v>216</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" t="s">
         <v>310</v>
       </c>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" t="s">
         <v>405</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" t="s">
         <v>406</v>
       </c>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="16">
+      <c r="AE5" s="36"/>
+      <c r="AM5" s="14">
         <v>8</v>
       </c>
-      <c r="AN5" s="16">
+      <c r="AN5" s="14">
         <v>3</v>
       </c>
-      <c r="AO5" s="16">
+      <c r="AO5" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="10" t="s">
+      <c r="AP5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>407</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
         <v>408</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" t="s">
         <v>400</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>408</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="G6" t="s">
         <v>381</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" t="s">
         <v>350</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" t="s">
         <v>307</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" t="s">
         <v>401</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" t="s">
         <v>382</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10" t="s">
+      <c r="M6" t="s">
         <v>409</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10" t="s">
+      <c r="O6" s="36"/>
+      <c r="S6" t="s">
         <v>410</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="16">
+      <c r="U6" s="14">
         <v>72</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" t="s">
         <v>411</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" t="s">
         <v>216</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" t="s">
         <v>4</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" t="s">
         <v>310</v>
       </c>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10" t="s">
+      <c r="AC6" t="s">
         <v>412</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AD6" t="s">
         <v>413</v>
       </c>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="16">
+      <c r="AE6" s="36"/>
+      <c r="AM6" s="14">
         <v>4</v>
       </c>
-      <c r="AN6" s="18">
+      <c r="AN6" s="16">
         <v>3.2</v>
       </c>
-      <c r="AO6" s="16">
+      <c r="AO6" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10" t="s">
+      <c r="AP6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>415</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" t="s">
         <v>416</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" t="s">
         <v>381</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" t="s">
         <v>350</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" t="s">
         <v>307</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" t="s">
         <v>417</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" t="s">
         <v>382</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="s">
+      <c r="M7" t="s">
         <v>383</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10" t="s">
+      <c r="O7" s="36"/>
+      <c r="S7" t="s">
         <v>418</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="16">
+      <c r="U7" s="14">
         <v>73</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" t="s">
         <v>419</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" t="s">
         <v>216</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" t="s">
         <v>4</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="Y7" t="s">
         <v>73</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="Z7" t="s">
         <v>85</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" t="s">
         <v>310</v>
       </c>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10" t="s">
+      <c r="AC7" t="s">
         <v>420</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AD7" t="s">
         <v>421</v>
       </c>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="22" t="s">
+      <c r="AE7" s="36"/>
+      <c r="AM7" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="AN7" s="18">
+      <c r="AN7" s="16">
         <v>1.5</v>
       </c>
-      <c r="AO7" s="16">
+      <c r="AO7" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="10" t="s">
+      <c r="AP7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>423</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" t="s">
         <v>415</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" t="s">
         <v>416</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>415</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="G8" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" t="s">
         <v>350</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" t="s">
         <v>307</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" t="s">
         <v>417</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" t="s">
         <v>382</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
+      <c r="M8" t="s">
         <v>383</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10" t="s">
+      <c r="O8" s="36"/>
+      <c r="S8" t="s">
         <v>418</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="16">
+      <c r="U8" s="14">
         <v>73</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" t="s">
         <v>419</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" t="s">
         <v>216</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="X8" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="Y8" t="s">
         <v>73</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="Z8" t="s">
         <v>85</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AA8" t="s">
         <v>310</v>
       </c>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10" t="s">
+      <c r="AC8" t="s">
         <v>420</v>
       </c>
-      <c r="AD8" s="10" t="s">
+      <c r="AD8" t="s">
         <v>421</v>
       </c>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="16">
+      <c r="AE8" s="36"/>
+      <c r="AM8" s="14">
         <v>3</v>
       </c>
-      <c r="AN8" s="16">
+      <c r="AN8" s="14">
         <v>1</v>
       </c>
-      <c r="AO8" s="16">
+      <c r="AO8" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="10" t="s">
+      <c r="AP8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>424</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" t="s">
         <v>415</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s">
         <v>415</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" t="s">
         <v>381</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" t="s">
         <v>350</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" t="s">
         <v>307</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" t="s">
         <v>417</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" t="s">
         <v>382</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10" t="s">
+      <c r="M9" t="s">
         <v>383</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10" t="s">
+      <c r="O9" s="36"/>
+      <c r="S9" t="s">
         <v>418</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="16">
+      <c r="U9" s="14">
         <v>73</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" t="s">
         <v>419</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="W9" t="s">
         <v>216</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="X9" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="Y9" t="s">
         <v>73</v>
       </c>
-      <c r="Z9" s="10" t="s">
+      <c r="Z9" t="s">
         <v>85</v>
       </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AA9" t="s">
         <v>310</v>
       </c>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10" t="s">
+      <c r="AC9" t="s">
         <v>420</v>
       </c>
-      <c r="AD9" s="10" t="s">
+      <c r="AD9" t="s">
         <v>421</v>
       </c>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="22" t="s">
+      <c r="AE9" s="36"/>
+      <c r="AM9" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22"/>
-      <c r="AO19" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="22"/>
-      <c r="AO21" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="22"/>
-      <c r="AO23" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="22"/>
-      <c r="AO25" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="22"/>
-      <c r="AO30" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="22"/>
-      <c r="AN31" s="22"/>
-      <c r="AO31" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="43"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
-      <c r="AK32" s="10"/>
-      <c r="AL32" s="10"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="43"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="22"/>
-      <c r="AN34" s="22"/>
-      <c r="AO34" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="43"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
-      <c r="AK35" s="10"/>
-      <c r="AL35" s="10"/>
-      <c r="AM35" s="22"/>
-      <c r="AN35" s="22"/>
-      <c r="AO35" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
-      <c r="AL36" s="10"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="43"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="22"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="10"/>
-      <c r="AM41" s="22"/>
-      <c r="AN41" s="22"/>
-      <c r="AO41" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="22"/>
-      <c r="AN42" s="22"/>
-      <c r="AO42" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
-      <c r="AK43" s="10"/>
-      <c r="AL43" s="10"/>
-      <c r="AM43" s="22"/>
-      <c r="AN43" s="22"/>
-      <c r="AO43" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="43"/>
-      <c r="AF44" s="10"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
-      <c r="AK44" s="10"/>
-      <c r="AL44" s="10"/>
-      <c r="AM44" s="22"/>
-      <c r="AN44" s="22"/>
-      <c r="AO44" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="43"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="10"/>
-      <c r="AL45" s="10"/>
-      <c r="AM45" s="22"/>
-      <c r="AN45" s="22"/>
-      <c r="AO45" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="43"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
-      <c r="AL46" s="10"/>
-      <c r="AM46" s="22"/>
-      <c r="AN46" s="22"/>
-      <c r="AO46" s="22"/>
+      <c r="AP9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="AE10" s="36"/>
+    </row>
+    <row r="11" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="AE11" s="36"/>
+    </row>
+    <row r="12" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="AE12" s="36"/>
+    </row>
+    <row r="13" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="AE13" s="36"/>
+    </row>
+    <row r="14" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="AE14" s="36"/>
+    </row>
+    <row r="15" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="AE15" s="36"/>
+    </row>
+    <row r="16" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="AE16" s="36"/>
+    </row>
+    <row r="17" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="AE17" s="36"/>
+    </row>
+    <row r="18" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="AE18" s="36"/>
+    </row>
+    <row r="19" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="AE19" s="36"/>
+    </row>
+    <row r="20" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="AE20" s="36"/>
+    </row>
+    <row r="21" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="AE21" s="36"/>
+    </row>
+    <row r="22" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="AE22" s="36"/>
+    </row>
+    <row r="23" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="AE23" s="36"/>
+    </row>
+    <row r="24" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="AE24" s="36"/>
+    </row>
+    <row r="25" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="AE25" s="36"/>
+    </row>
+    <row r="26" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="AE26" s="36"/>
+    </row>
+    <row r="27" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="AE27" s="36"/>
+    </row>
+    <row r="28" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="AE28" s="36"/>
+    </row>
+    <row r="29" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="AE29" s="36"/>
+    </row>
+    <row r="30" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="AE30" s="36"/>
+    </row>
+    <row r="31" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="AE31" s="36"/>
+    </row>
+    <row r="32" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="AE32" s="36"/>
+    </row>
+    <row r="33" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="AE33" s="36"/>
+    </row>
+    <row r="34" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="AE34" s="36"/>
+    </row>
+    <row r="35" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="AE35" s="36"/>
+    </row>
+    <row r="36" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="AE36" s="36"/>
+    </row>
+    <row r="37" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="AE37" s="36"/>
+    </row>
+    <row r="38" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="AE38" s="36"/>
+    </row>
+    <row r="39" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="AE39" s="36"/>
+    </row>
+    <row r="40" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="AE40" s="36"/>
+    </row>
+    <row r="41" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="AE41" s="36"/>
+    </row>
+    <row r="42" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="AE42" s="36"/>
+    </row>
+    <row r="43" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="AE43" s="36"/>
+    </row>
+    <row r="44" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="AE44" s="36"/>
+    </row>
+    <row r="45" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="AE45" s="36"/>
+    </row>
+    <row r="46" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="AE46" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4437,7 +3004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4445,1712 +3012,1088 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="35" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="27" t="s">
+    </row>
+    <row r="2" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="AE2" s="27" t="s">
+      <c r="AE2" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="AF2" s="27" t="s">
+      <c r="AF2" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AH2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>307</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" t="s">
         <v>334</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" t="s">
         <v>313</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="14">
         <v>62</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" t="s">
         <v>265</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" t="s">
         <v>266</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" t="s">
         <v>270</v>
       </c>
-      <c r="S3" s="18">
-        <v>1166.9</v>
-      </c>
-      <c r="T3" s="43" t="s">
+      <c r="S3" s="16">
+        <v>1166.9000000000001</v>
+      </c>
+      <c r="T3" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" t="s">
         <v>73</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" t="s">
         <v>310</v>
       </c>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" t="s">
         <v>336</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" t="s">
         <v>337</v>
       </c>
-      <c r="AC3" s="43" t="s">
+      <c r="AC3" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE3" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AG3" t="s">
         <v>311</v>
       </c>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="38">
         <v>2022</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" t="s">
         <v>307</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" t="s">
         <v>262</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" t="s">
         <v>334</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" t="s">
         <v>306</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" t="s">
         <v>313</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="10" t="s">
+      <c r="O4" t="s">
         <v>266</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" t="s">
         <v>266</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" t="s">
         <v>270</v>
       </c>
-      <c r="S4" s="18">
-        <v>1166.9</v>
-      </c>
-      <c r="T4" s="43" t="s">
+      <c r="S4" s="16">
+        <v>1166.9000000000001</v>
+      </c>
+      <c r="T4" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" t="s">
         <v>310</v>
       </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" t="s">
         <v>336</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" t="s">
         <v>337</v>
       </c>
-      <c r="AC4" s="43" t="s">
+      <c r="AC4" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" t="s">
         <v>4</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" t="s">
         <v>73</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" t="s">
         <v>85</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AG4" t="s">
         <v>311</v>
       </c>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10" t="s">
+      <c r="AI4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="46" t="s">
+    <row r="5" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="AC5" s="36"/>
+    </row>
+    <row r="6" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="AC6" s="36"/>
+    </row>
+    <row r="7" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="AC7" s="36"/>
+    </row>
+    <row r="8" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="AC8" s="36"/>
+    </row>
+    <row r="9" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="43" t="s">
+      <c r="Q9" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="43" t="s">
+      <c r="T9" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="U9" s="43" t="s">
+      <c r="U9" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="43" t="s">
+      <c r="AC9" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="27" t="s">
+    </row>
+    <row r="10" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="M10" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="P10" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="Q10" s="44" t="s">
+      <c r="Q10" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="S10" s="28" t="s">
+      <c r="S10" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="T10" s="44" t="s">
+      <c r="T10" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="V10" s="27" t="s">
+      <c r="V10" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="W10" s="27" t="s">
+      <c r="W10" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="X10" s="27" t="s">
+      <c r="X10" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="Y10" s="27" t="s">
+      <c r="Y10" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="Z10" s="27" t="s">
+      <c r="Z10" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="AA10" s="27" t="s">
+      <c r="AA10" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="AB10" s="27" t="s">
+      <c r="AB10" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AC10" s="44" t="s">
+      <c r="AC10" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="AD10" s="27" t="s">
+      <c r="AD10" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="AE10" s="27" t="s">
+      <c r="AE10" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="AF10" s="27" t="s">
+      <c r="AF10" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="AG10" s="27" t="s">
+      <c r="AG10" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AH10" s="27" t="s">
+      <c r="AH10" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="AI10" s="27" t="s">
+      <c r="AI10" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" t="s">
         <v>332</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" t="s">
         <v>307</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" t="s">
         <v>262</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" t="s">
         <v>304</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" t="s">
         <v>334</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10" t="s">
+      <c r="L11" t="s">
         <v>313</v>
       </c>
-      <c r="M11" s="43"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="43" t="s">
+      <c r="M11" s="36"/>
+      <c r="Q11" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" t="s">
         <v>270</v>
       </c>
-      <c r="S11" s="18">
-        <v>1166.9</v>
-      </c>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="10" t="s">
+      <c r="S11" s="16">
+        <v>1166.9000000000001</v>
+      </c>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="AC11" s="36"/>
+    </row>
+    <row r="12" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>342</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" t="s">
         <v>344</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" t="s">
         <v>307</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" t="s">
         <v>346</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
+      <c r="K12" t="s">
         <v>306</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="43" t="s">
+      <c r="M12" s="36"/>
+      <c r="Q12" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" t="s">
         <v>270</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="14">
         <v>1234</v>
       </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="46" t="s">
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="AC12" s="36"/>
+    </row>
+    <row r="13" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="AC13" s="36"/>
+    </row>
+    <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="10" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="AC14" s="36"/>
+    </row>
+    <row r="15" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="43" t="s">
+      <c r="M15" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="43" t="s">
+      <c r="Q15" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="43" t="s">
+      <c r="T15" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="U15" s="43" t="s">
+      <c r="U15" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="43" t="s">
+      <c r="AC15" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="27" t="s">
+    </row>
+    <row r="16" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="Q16" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="R16" s="27" t="s">
+      <c r="R16" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="S16" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="T16" s="44" t="s">
+      <c r="T16" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="U16" s="44" t="s">
+      <c r="U16" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="V16" s="27" t="s">
+      <c r="V16" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="W16" s="27" t="s">
+      <c r="W16" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="X16" s="27" t="s">
+      <c r="X16" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="Y16" s="27" t="s">
+      <c r="Y16" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="Z16" s="27" t="s">
+      <c r="Z16" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="AA16" s="27" t="s">
+      <c r="AA16" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="AB16" s="27" t="s">
+      <c r="AB16" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AC16" s="44" t="s">
+      <c r="AC16" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="AD16" s="27" t="s">
+      <c r="AD16" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="AE16" s="27" t="s">
+      <c r="AE16" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="AF16" s="27" t="s">
+      <c r="AF16" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="AG16" s="27" t="s">
+      <c r="AG16" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AH16" s="27" t="s">
+      <c r="AH16" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="AI16" s="27" t="s">
+      <c r="AI16" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>348</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" t="s">
         <v>332</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" t="s">
         <v>307</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" t="s">
         <v>351</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" t="s">
         <v>352</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" t="s">
         <v>334</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10" t="s">
+      <c r="L17" t="s">
         <v>313</v>
       </c>
-      <c r="M17" s="43"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="43" t="s">
+      <c r="M17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="T17" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="U17" s="43" t="s">
+      <c r="U17" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="V17" s="10" t="s">
+      <c r="V17" t="s">
         <v>4</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="W17" t="s">
         <v>73</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="X17" t="s">
         <v>85</v>
       </c>
-      <c r="Y17" s="10" t="s">
+      <c r="Y17" t="s">
         <v>310</v>
       </c>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10" t="s">
+      <c r="AA17" t="s">
         <v>354</v>
       </c>
-      <c r="AB17" s="10" t="s">
+      <c r="AB17" t="s">
         <v>355</v>
       </c>
-      <c r="AC17" s="43" t="s">
+      <c r="AC17" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="AD17" s="10" t="s">
+      <c r="AD17" t="s">
         <v>4</v>
       </c>
-      <c r="AE17" s="10" t="s">
+      <c r="AE17" t="s">
         <v>73</v>
       </c>
-      <c r="AF17" s="10" t="s">
+      <c r="AF17" t="s">
         <v>85</v>
       </c>
-      <c r="AG17" s="10" t="s">
+      <c r="AG17" t="s">
         <v>311</v>
       </c>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10" t="s">
+      <c r="AI17" t="s">
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>357</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" t="s">
         <v>358</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" t="s">
         <v>344</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" t="s">
         <v>271</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" t="s">
         <v>307</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" t="s">
         <v>351</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" t="s">
         <v>352</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" t="s">
         <v>334</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10" t="s">
+      <c r="L18" t="s">
         <v>313</v>
       </c>
-      <c r="M18" s="43"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="43" t="s">
+      <c r="M18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="T18" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="U18" s="43" t="s">
+      <c r="U18" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="V18" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="W18" t="s">
         <v>73</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="X18" t="s">
         <v>85</v>
       </c>
-      <c r="Y18" s="10" t="s">
+      <c r="Y18" t="s">
         <v>310</v>
       </c>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10" t="s">
+      <c r="AA18" t="s">
         <v>360</v>
       </c>
-      <c r="AB18" s="10" t="s">
+      <c r="AB18" t="s">
         <v>361</v>
       </c>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="10" t="s">
+      <c r="AC18" s="36"/>
+    </row>
+    <row r="19" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>362</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" t="s">
         <v>363</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" t="s">
         <v>271</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" t="s">
         <v>307</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" t="s">
         <v>364</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="43" t="s">
+      <c r="M19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="T19" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="U19" s="43"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="43" t="s">
+      <c r="U19" s="36"/>
+      <c r="AC19" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="AD19" s="10" t="s">
+      <c r="AD19" t="s">
         <v>4</v>
       </c>
-      <c r="AE19" s="10" t="s">
+      <c r="AE19" t="s">
         <v>73</v>
       </c>
-      <c r="AF19" s="10" t="s">
+      <c r="AF19" t="s">
         <v>85</v>
       </c>
-      <c r="AG19" s="10" t="s">
+      <c r="AG19" t="s">
         <v>311</v>
       </c>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10" t="s">
+      <c r="AI19" t="s">
         <v>366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="48"/>
-      <c r="B24" s="51" t="s">
+    <row r="20" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="AC20" s="36"/>
+    </row>
+    <row r="21" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="AC21" s="36"/>
+    </row>
+    <row r="22" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="AC22" s="36"/>
+    </row>
+    <row r="23" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="M23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="AC23" s="36"/>
+    </row>
+    <row r="24" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="M24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="AC24" s="36"/>
+    </row>
+    <row r="25" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="M25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="AC25" s="36"/>
+    </row>
+    <row r="26" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="M26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="AC26" s="36"/>
+    </row>
+    <row r="27" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="M27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="AC27" s="36"/>
+    </row>
+    <row r="28" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="AC28" s="36"/>
+    </row>
+    <row r="29" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="AC29" s="36"/>
+    </row>
+    <row r="30" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="AC30" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6158,7 +4101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6166,289 +4109,267 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="21" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="9" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="9" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AI1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AK1" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AL1" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AM1" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AN1" s="20" t="s">
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="29">
         <v>62</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AC2" s="40" t="s">
+      <c r="AC2" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="AD2" s="18">
-        <v>1166.9</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="41">
-        <v>1166.9</v>
-      </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AD2" s="16">
+        <v>1166.9000000000001</v>
+      </c>
+      <c r="AF2" s="34">
+        <v>1166.9000000000001</v>
+      </c>
+      <c r="AG2" t="s">
         <v>312</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AH2" t="s">
         <v>270</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" t="s">
         <v>272</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AJ2" t="s">
         <v>313</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AK2" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="AL2" s="39" t="s">
+      <c r="AL2" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="AM2" s="40" t="s">
+      <c r="AM2" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="AN2" s="42" t="s">
+      <c r="AN2" s="35" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6458,7 +4379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6466,290 +4387,203 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="31" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" t="s">
         <v>230</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" t="s">
         <v>231</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" t="s">
         <v>233</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" t="s">
         <v>276</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" t="s">
         <v>236</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" t="s">
         <v>237</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" t="s">
         <v>238</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" t="s">
         <v>277</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" t="s">
         <v>240</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" t="s">
         <v>242</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" t="s">
         <v>243</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" t="s">
         <v>244</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" t="s">
         <v>245</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" t="s">
         <v>246</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" t="s">
         <v>247</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" t="s">
         <v>248</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" t="s">
         <v>249</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" t="s">
         <v>250</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" t="s">
         <v>251</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s">
         <v>282</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>257</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" t="s">
         <v>258</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" t="s">
         <v>260</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>62</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" t="s">
         <v>262</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" t="s">
         <v>284</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" t="s">
         <v>285</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
+      <c r="P3" t="s">
         <v>265</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" t="s">
         <v>266</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" t="s">
         <v>267</v>
       </c>
-      <c r="T3" s="18">
-        <v>1166.9</v>
-      </c>
-      <c r="U3" s="10" t="s">
+      <c r="T3" s="16">
+        <v>1166.9000000000001</v>
+      </c>
+      <c r="U3" t="s">
         <v>268</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" t="s">
         <v>269</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" t="s">
         <v>214</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" t="s">
         <v>270</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" t="s">
         <v>271</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" t="s">
         <v>272</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" t="s">
         <v>272</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" t="s">
         <v>286</v>
       </c>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
+    </row>
+    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6757,7 +4591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6765,228 +4599,206 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="20" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" t="s">
         <v>233</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" t="s">
         <v>234</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" t="s">
         <v>239</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" t="s">
         <v>241</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" t="s">
         <v>243</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" t="s">
         <v>244</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" t="s">
         <v>245</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" t="s">
         <v>246</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" t="s">
         <v>247</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" t="s">
         <v>248</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" t="s">
         <v>249</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" t="s">
         <v>250</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" t="s">
         <v>251</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="14">
         <v>62</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" t="s">
         <v>262</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" t="s">
         <v>263</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="15">
         <v>44227</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" t="s">
         <v>265</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" t="s">
         <v>266</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" t="s">
         <v>267</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="18">
-        <v>1166.9</v>
-      </c>
-      <c r="V2" s="10" t="s">
+      <c r="U2" s="16">
+        <v>1166.9000000000001</v>
+      </c>
+      <c r="V2" t="s">
         <v>268</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" t="s">
         <v>269</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" t="s">
         <v>214</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" t="s">
         <v>270</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" t="s">
         <v>271</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" t="s">
         <v>272</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" t="s">
         <v>272</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" t="s">
         <v>273</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" t="s">
         <v>272</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6996,7 +4808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7004,25 +4816,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="42.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="29.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="30.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7032,14 +4844,14 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -7049,14 +4861,14 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7066,14 +4878,14 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -7083,14 +4895,14 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7100,14 +4912,14 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7117,14 +4929,14 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -7134,14 +4946,14 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -7151,14 +4963,14 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -7168,14 +4980,14 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -7185,14 +4997,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -7202,14 +5014,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7219,14 +5031,14 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7236,14 +5048,14 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7253,14 +5065,14 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7270,14 +5082,14 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7287,14 +5099,14 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -7304,14 +5116,14 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -7321,14 +5133,14 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -7338,14 +5150,14 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7355,14 +5167,14 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -7372,14 +5184,14 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -7389,14 +5201,14 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -7406,14 +5218,14 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -7423,7 +5235,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -7438,7 +5250,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -7455,7 +5267,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -7472,7 +5284,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -7489,7 +5301,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -7506,7 +5318,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -7523,7 +5335,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -7538,7 +5350,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -7555,7 +5367,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -7572,7 +5384,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -7589,7 +5401,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -7604,7 +5416,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -7619,14 +5431,14 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7636,10 +5448,10 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -7649,14 +5461,14 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -7666,14 +5478,14 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -7683,14 +5495,14 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -7700,14 +5512,14 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -7717,14 +5529,14 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -7734,14 +5546,14 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -7751,14 +5563,14 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -7768,7 +5580,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -7783,7 +5595,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -7798,14 +5610,14 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -7815,10 +5627,10 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7828,14 +5640,14 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -7845,14 +5657,14 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -7862,14 +5674,14 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -7879,14 +5691,14 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7896,14 +5708,14 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -7913,14 +5725,14 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -7930,14 +5742,14 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7947,14 +5759,14 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -7964,14 +5776,14 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7981,14 +5793,14 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -7998,14 +5810,14 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -8015,14 +5827,14 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -8032,14 +5844,14 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -8049,14 +5861,14 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -8066,14 +5878,14 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -8083,14 +5895,14 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -8100,14 +5912,14 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -8117,14 +5929,14 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -8134,14 +5946,14 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -8151,14 +5963,14 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -8168,14 +5980,14 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -8185,14 +5997,14 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -8202,14 +6014,14 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="46"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -8219,14 +6031,14 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="46"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -8236,14 +6048,14 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -8253,14 +6065,14 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -8270,14 +6082,14 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -8287,14 +6099,14 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -8304,7 +6116,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>139</v>
       </c>
@@ -8319,7 +6131,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>140</v>
       </c>
@@ -8334,7 +6146,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>141</v>
       </c>
@@ -8351,7 +6163,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>143</v>
       </c>
@@ -8368,7 +6180,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>145</v>
       </c>
@@ -8385,7 +6197,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>147</v>
       </c>
@@ -8402,7 +6214,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -8415,7 +6227,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>149</v>
       </c>
@@ -8430,7 +6242,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>150</v>
       </c>
@@ -8465,7 +6277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>153</v>
       </c>
@@ -8500,7 +6312,7 @@
         <v>169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
@@ -8531,7 +6343,7 @@
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>157</v>
       </c>
@@ -8562,7 +6374,7 @@
         <v>185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>154</v>
       </c>
@@ -8591,7 +6403,7 @@
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>152</v>
       </c>
@@ -8616,7 +6428,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
@@ -8639,7 +6451,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>156</v>
       </c>
@@ -8660,7 +6472,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>158</v>
       </c>
@@ -8679,7 +6491,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>155</v>
       </c>
@@ -8698,7 +6510,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
@@ -8715,7 +6527,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
@@ -8730,7 +6542,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
@@ -8745,7 +6557,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
@@ -8760,7 +6572,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="8" t="s">
@@ -8775,7 +6587,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="7" t="s">
@@ -8790,7 +6602,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
@@ -8805,7 +6617,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
@@ -8820,7 +6632,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
@@ -8835,7 +6647,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
@@ -8850,7 +6662,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
@@ -8865,7 +6677,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
@@ -8937,14 +6749,14 @@
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/custom_meta_fields/custom_fields_MPXV_metadata_Sample_Run_1.xlsx
+++ b/assets/custom_meta_fields/custom_fields_MPXV_metadata_Sample_Run_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankushgupta/Documents/tostadas/assets/custom_meta_fields/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyoconnell/Desktop/tostadas/assets/custom_meta_fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C29379-ACB1-7D44-B89A-1789603997D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972A660-802A-274C-9488-AB2F3BE8EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="440">
   <si>
     <t>Strategy</t>
   </si>
@@ -1324,6 +1324,27 @@
   </si>
   <si>
     <t>TX0001_7.fasta</t>
+  </si>
+  <si>
+    <t>FL0004.fasta</t>
+  </si>
+  <si>
+    <t>IL0005.fasta</t>
+  </si>
+  <si>
+    <t>NY0006.fasta</t>
+  </si>
+  <si>
+    <t>NY0007.fasta</t>
+  </si>
+  <si>
+    <t>TX0001.fasta</t>
+  </si>
+  <si>
+    <t>FL0015.fasta</t>
+  </si>
+  <si>
+    <t>OH0002.fasta</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1439,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1478,6 +1499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1569,7 +1596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1706,6 +1733,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2011,992 +2039,1016 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AP46"/>
+  <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AP10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="38" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="39" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="13.5" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AF1" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="P2" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="T2" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="V2" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="W2" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="X2" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="Y2" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Z2" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AB2" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AE2" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AE2" s="37" t="s">
+      <c r="AF2" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AG2" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AH2" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AI2" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AK2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AL2" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="AM2" s="21" t="s">
+      <c r="AN2" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AO2" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="AO2" s="21" t="s">
+      <c r="AP2" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="AP2" s="45" t="s">
+      <c r="AQ2" s="45" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" t="s">
         <v>378</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>379</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>380</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>379</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>381</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>350</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>307</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>262</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>382</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>383</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="S3" t="s">
+      <c r="P3" s="36"/>
+      <c r="T3" t="s">
         <v>384</v>
       </c>
-      <c r="U3" s="14">
+      <c r="V3" s="14">
         <v>247</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>385</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>216</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>310</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>386</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>387</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AM3" s="14" t="s">
+      <c r="AF3" s="36"/>
+      <c r="AN3" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="AN3" s="17">
+      <c r="AO3" s="17">
         <v>50</v>
       </c>
-      <c r="AO3" s="14">
+      <c r="AP3" s="14">
         <v>1</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" t="s">
         <v>389</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>390</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>391</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>390</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>381</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>350</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>307</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>392</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>393</v>
       </c>
-      <c r="O4" s="36"/>
-      <c r="S4" t="s">
+      <c r="P4" s="36"/>
+      <c r="T4" t="s">
         <v>394</v>
       </c>
-      <c r="U4" s="14">
+      <c r="V4" s="14">
         <v>40</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>395</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>216</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>73</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>85</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>310</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>396</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>397</v>
       </c>
-      <c r="AE4" s="36"/>
-      <c r="AM4" s="14">
+      <c r="AF4" s="36"/>
+      <c r="AN4" s="14">
         <v>5</v>
       </c>
-      <c r="AN4" s="16">
+      <c r="AO4" s="16">
         <v>3.5</v>
       </c>
-      <c r="AO4" s="14">
+      <c r="AP4" s="14">
         <v>0</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" t="s">
         <v>398</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>399</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>400</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>399</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>381</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>350</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>307</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>401</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>402</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="S5" t="s">
+      <c r="P5" s="36"/>
+      <c r="T5" t="s">
         <v>403</v>
       </c>
-      <c r="U5" s="14">
+      <c r="V5" s="14">
         <v>121</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>404</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>216</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>310</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>405</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>406</v>
       </c>
-      <c r="AE5" s="36"/>
-      <c r="AM5" s="14">
+      <c r="AF5" s="36"/>
+      <c r="AN5" s="14">
         <v>8</v>
       </c>
-      <c r="AN5" s="14">
+      <c r="AO5" s="14">
         <v>3</v>
       </c>
-      <c r="AO5" s="14">
+      <c r="AP5" s="14">
         <v>0</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s">
         <v>407</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>408</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>400</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>408</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>381</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>350</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>307</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>401</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>382</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>409</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="S6" t="s">
+      <c r="P6" s="36"/>
+      <c r="T6" t="s">
         <v>410</v>
       </c>
-      <c r="U6" s="14">
+      <c r="V6" s="14">
         <v>72</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>411</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>216</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>4</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>310</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>412</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>413</v>
       </c>
-      <c r="AE6" s="36"/>
-      <c r="AM6" s="14">
+      <c r="AF6" s="36"/>
+      <c r="AN6" s="14">
         <v>4</v>
       </c>
-      <c r="AN6" s="16">
+      <c r="AO6" s="16">
         <v>3.2</v>
       </c>
-      <c r="AO6" s="14">
+      <c r="AP6" s="14">
         <v>1</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" t="s">
         <v>414</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>415</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>416</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>415</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>381</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>350</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>307</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>417</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>382</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>383</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="S7" t="s">
+      <c r="P7" s="36"/>
+      <c r="T7" t="s">
         <v>418</v>
       </c>
-      <c r="U7" s="14">
+      <c r="V7" s="14">
         <v>73</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>419</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>216</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>4</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>73</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>85</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>310</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>420</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>421</v>
       </c>
-      <c r="AE7" s="36"/>
-      <c r="AM7" s="17" t="s">
+      <c r="AF7" s="36"/>
+      <c r="AN7" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="AN7" s="16">
+      <c r="AO7" s="16">
         <v>1.5</v>
       </c>
-      <c r="AO7" s="14">
+      <c r="AP7" s="14">
         <v>0</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" t="s">
         <v>423</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>415</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>416</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>415</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>381</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>350</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>307</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>417</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>382</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>383</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="S8" t="s">
+      <c r="P8" s="36"/>
+      <c r="T8" t="s">
         <v>418</v>
       </c>
-      <c r="U8" s="14">
+      <c r="V8" s="14">
         <v>73</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>419</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>216</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>73</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>85</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>310</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>420</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>421</v>
       </c>
-      <c r="AE8" s="36"/>
-      <c r="AM8" s="14">
+      <c r="AF8" s="36"/>
+      <c r="AN8" s="14">
         <v>3</v>
-      </c>
-      <c r="AN8" s="14">
-        <v>1</v>
       </c>
       <c r="AO8" s="14">
         <v>1</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AP8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" t="s">
         <v>424</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>415</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>416</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>415</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>381</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>350</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>307</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>417</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>382</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>383</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="S9" t="s">
+      <c r="P9" s="36"/>
+      <c r="T9" t="s">
         <v>418</v>
       </c>
-      <c r="U9" s="14">
+      <c r="V9" s="14">
         <v>73</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>419</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>216</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>73</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>85</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>310</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>420</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>421</v>
       </c>
-      <c r="AE9" s="36"/>
-      <c r="AM9" s="17" t="s">
+      <c r="AF9" s="36"/>
+      <c r="AN9" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="V10" s="36"/>
+    <row r="10" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="T10" s="36"/>
       <c r="W10" s="36"/>
-      <c r="AE10" s="36"/>
-    </row>
-    <row r="11" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="V11" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="AF10" s="36"/>
+    </row>
+    <row r="11" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="T11" s="36"/>
       <c r="W11" s="36"/>
-      <c r="AE11" s="36"/>
-    </row>
-    <row r="12" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="V12" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="AF11" s="36"/>
+    </row>
+    <row r="12" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="T12" s="36"/>
       <c r="W12" s="36"/>
-      <c r="AE12" s="36"/>
-    </row>
-    <row r="13" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="V13" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="AF12" s="36"/>
+    </row>
+    <row r="13" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="T13" s="36"/>
       <c r="W13" s="36"/>
-      <c r="AE13" s="36"/>
-    </row>
-    <row r="14" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="V14" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="AF13" s="36"/>
+    </row>
+    <row r="14" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="T14" s="36"/>
       <c r="W14" s="36"/>
-      <c r="AE14" s="36"/>
-    </row>
-    <row r="15" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="V15" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="AF14" s="36"/>
+    </row>
+    <row r="15" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="T15" s="36"/>
       <c r="W15" s="36"/>
-      <c r="AE15" s="36"/>
-    </row>
-    <row r="16" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="AF15" s="36"/>
+    </row>
+    <row r="16" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="T16" s="36"/>
       <c r="W16" s="36"/>
-      <c r="AE16" s="36"/>
-    </row>
-    <row r="17" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="V17" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="AF16" s="36"/>
+    </row>
+    <row r="17" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="T17" s="36"/>
       <c r="W17" s="36"/>
-      <c r="AE17" s="36"/>
-    </row>
-    <row r="18" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="V18" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="AF17" s="36"/>
+    </row>
+    <row r="18" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="T18" s="36"/>
       <c r="W18" s="36"/>
-      <c r="AE18" s="36"/>
-    </row>
-    <row r="19" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="V19" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="AF18" s="36"/>
+    </row>
+    <row r="19" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="T19" s="36"/>
       <c r="W19" s="36"/>
-      <c r="AE19" s="36"/>
-    </row>
-    <row r="20" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="AF19" s="36"/>
+    </row>
+    <row r="20" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="T20" s="36"/>
       <c r="W20" s="36"/>
-      <c r="AE20" s="36"/>
-    </row>
-    <row r="21" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="V21" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="AF20" s="36"/>
+    </row>
+    <row r="21" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="T21" s="36"/>
       <c r="W21" s="36"/>
-      <c r="AE21" s="36"/>
-    </row>
-    <row r="22" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="V22" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="AF21" s="36"/>
+    </row>
+    <row r="22" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="T22" s="36"/>
       <c r="W22" s="36"/>
-      <c r="AE22" s="36"/>
-    </row>
-    <row r="23" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="V23" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="AF22" s="36"/>
+    </row>
+    <row r="23" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="T23" s="36"/>
       <c r="W23" s="36"/>
-      <c r="AE23" s="36"/>
-    </row>
-    <row r="24" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="V24" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="AF23" s="36"/>
+    </row>
+    <row r="24" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="T24" s="36"/>
       <c r="W24" s="36"/>
-      <c r="AE24" s="36"/>
-    </row>
-    <row r="25" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="V25" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="AF24" s="36"/>
+    </row>
+    <row r="25" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="T25" s="36"/>
       <c r="W25" s="36"/>
-      <c r="AE25" s="36"/>
-    </row>
-    <row r="26" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="V26" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="AF25" s="36"/>
+    </row>
+    <row r="26" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="T26" s="36"/>
       <c r="W26" s="36"/>
-      <c r="AE26" s="36"/>
-    </row>
-    <row r="27" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="V27" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="AF26" s="36"/>
+    </row>
+    <row r="27" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="T27" s="36"/>
       <c r="W27" s="36"/>
-      <c r="AE27" s="36"/>
-    </row>
-    <row r="28" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="V28" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="AF27" s="36"/>
+    </row>
+    <row r="28" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="T28" s="36"/>
       <c r="W28" s="36"/>
-      <c r="AE28" s="36"/>
-    </row>
-    <row r="29" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="V29" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="AF28" s="36"/>
+    </row>
+    <row r="29" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="T29" s="36"/>
       <c r="W29" s="36"/>
-      <c r="AE29" s="36"/>
-    </row>
-    <row r="30" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="V30" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="AF29" s="36"/>
+    </row>
+    <row r="30" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="T30" s="36"/>
       <c r="W30" s="36"/>
-      <c r="AE30" s="36"/>
-    </row>
-    <row r="31" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="V31" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="AF30" s="36"/>
+    </row>
+    <row r="31" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="T31" s="36"/>
       <c r="W31" s="36"/>
-      <c r="AE31" s="36"/>
-    </row>
-    <row r="32" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="V32" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="AF31" s="36"/>
+    </row>
+    <row r="32" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="T32" s="36"/>
       <c r="W32" s="36"/>
-      <c r="AE32" s="36"/>
-    </row>
-    <row r="33" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="V33" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="AF32" s="36"/>
+    </row>
+    <row r="33" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="T33" s="36"/>
       <c r="W33" s="36"/>
-      <c r="AE33" s="36"/>
-    </row>
-    <row r="34" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="V34" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="AF33" s="36"/>
+    </row>
+    <row r="34" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="T34" s="36"/>
       <c r="W34" s="36"/>
-      <c r="AE34" s="36"/>
-    </row>
-    <row r="35" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="V35" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="AF34" s="36"/>
+    </row>
+    <row r="35" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="T35" s="36"/>
       <c r="W35" s="36"/>
-      <c r="AE35" s="36"/>
-    </row>
-    <row r="36" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="V36" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="AF35" s="36"/>
+    </row>
+    <row r="36" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="T36" s="36"/>
       <c r="W36" s="36"/>
-      <c r="AE36" s="36"/>
-    </row>
-    <row r="37" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="V37" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="AF36" s="36"/>
+    </row>
+    <row r="37" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="T37" s="36"/>
       <c r="W37" s="36"/>
-      <c r="AE37" s="36"/>
-    </row>
-    <row r="38" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="V38" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="AF37" s="36"/>
+    </row>
+    <row r="38" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="T38" s="36"/>
       <c r="W38" s="36"/>
-      <c r="AE38" s="36"/>
-    </row>
-    <row r="39" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="V39" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="AF38" s="36"/>
+    </row>
+    <row r="39" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="T39" s="36"/>
       <c r="W39" s="36"/>
-      <c r="AE39" s="36"/>
-    </row>
-    <row r="40" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="V40" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="AF39" s="36"/>
+    </row>
+    <row r="40" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="T40" s="36"/>
       <c r="W40" s="36"/>
-      <c r="AE40" s="36"/>
-    </row>
-    <row r="41" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="V41" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="AF40" s="36"/>
+    </row>
+    <row r="41" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="T41" s="36"/>
       <c r="W41" s="36"/>
-      <c r="AE41" s="36"/>
-    </row>
-    <row r="42" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="V42" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="AF41" s="36"/>
+    </row>
+    <row r="42" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="T42" s="36"/>
       <c r="W42" s="36"/>
-      <c r="AE42" s="36"/>
-    </row>
-    <row r="43" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="V43" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="AF42" s="36"/>
+    </row>
+    <row r="43" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="T43" s="36"/>
       <c r="W43" s="36"/>
-      <c r="AE43" s="36"/>
-    </row>
-    <row r="44" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="V44" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="AF43" s="36"/>
+    </row>
+    <row r="44" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="T44" s="36"/>
       <c r="W44" s="36"/>
-      <c r="AE44" s="36"/>
-    </row>
-    <row r="45" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="V45" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="AF44" s="36"/>
+    </row>
+    <row r="45" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="T45" s="36"/>
       <c r="W45" s="36"/>
-      <c r="AE45" s="36"/>
-    </row>
-    <row r="46" spans="4:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="V46" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="AF45" s="36"/>
+    </row>
+    <row r="46" spans="5:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="T46" s="36"/>
       <c r="W46" s="36"/>
-      <c r="AE46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="AF46" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6694,61 +6746,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6757,6 +6754,61 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/custom_meta_fields/custom_fields_MPXV_metadata_Sample_Run_1.xlsx
+++ b/assets/custom_meta_fields/custom_fields_MPXV_metadata_Sample_Run_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyoconnell/Desktop/tostadas/assets/custom_meta_fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972A660-802A-274C-9488-AB2F3BE8EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A1489-3C8E-B94B-95B3-BDF06F2CED1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="441">
   <si>
     <t>Strategy</t>
   </si>
@@ -1345,6 +1345,9 @@
   </si>
   <si>
     <t>OH0002.fasta</t>
+  </si>
+  <si>
+    <t>human</t>
   </si>
 </sst>
 </file>
@@ -1727,13 +1730,13 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2042,7 +2045,7 @@
   <dimension ref="A1:AQ46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2086,7 +2089,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>425</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -2229,6 +2232,9 @@
       <c r="E3" t="s">
         <v>379</v>
       </c>
+      <c r="G3" t="s">
+        <v>440</v>
+      </c>
       <c r="H3" t="s">
         <v>381</v>
       </c>
@@ -2308,6 +2314,9 @@
       <c r="E4" t="s">
         <v>390</v>
       </c>
+      <c r="G4" t="s">
+        <v>440</v>
+      </c>
       <c r="H4" t="s">
         <v>381</v>
       </c>
@@ -2384,6 +2393,9 @@
       <c r="E5" t="s">
         <v>399</v>
       </c>
+      <c r="G5" t="s">
+        <v>440</v>
+      </c>
       <c r="H5" t="s">
         <v>381</v>
       </c>
@@ -2460,6 +2472,9 @@
       <c r="E6" t="s">
         <v>408</v>
       </c>
+      <c r="G6" t="s">
+        <v>440</v>
+      </c>
       <c r="H6" t="s">
         <v>381</v>
       </c>
@@ -2539,6 +2554,9 @@
       <c r="E7" t="s">
         <v>415</v>
       </c>
+      <c r="G7" t="s">
+        <v>440</v>
+      </c>
       <c r="H7" t="s">
         <v>381</v>
       </c>
@@ -2618,6 +2636,9 @@
       <c r="E8" t="s">
         <v>415</v>
       </c>
+      <c r="G8" t="s">
+        <v>440</v>
+      </c>
       <c r="H8" t="s">
         <v>381</v>
       </c>
@@ -2696,6 +2717,9 @@
       </c>
       <c r="E9" t="s">
         <v>415</v>
+      </c>
+      <c r="G9" t="s">
+        <v>440</v>
       </c>
       <c r="H9" t="s">
         <v>381</v>
@@ -4885,8 +4909,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4900,10 +4924,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4917,10 +4941,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4934,10 +4958,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4951,10 +4975,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4968,10 +4992,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4985,10 +5009,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5002,10 +5026,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5019,10 +5043,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5036,10 +5060,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5053,10 +5077,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5070,10 +5094,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5087,10 +5111,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5104,10 +5128,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5121,10 +5145,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5138,10 +5162,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5155,10 +5179,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5172,10 +5196,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5189,10 +5213,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5206,10 +5230,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5223,10 +5247,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5240,10 +5264,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -5257,10 +5281,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -5274,10 +5298,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5487,10 +5511,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5502,8 +5526,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5517,10 +5541,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="47"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5534,10 +5558,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5551,10 +5575,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="46"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5568,10 +5592,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="46"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5585,10 +5609,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="46"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5602,10 +5626,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="46"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5619,10 +5643,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="46"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5666,10 +5690,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="46"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5681,8 +5705,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5696,10 +5720,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="46"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5713,10 +5737,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="46"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5730,10 +5754,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="46"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5747,10 +5771,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="46"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5764,10 +5788,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="46"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5781,10 +5805,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="46"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5798,10 +5822,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="46"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5815,10 +5839,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="46"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5832,10 +5856,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="46"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5849,10 +5873,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="46"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5866,10 +5890,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="46"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5883,10 +5907,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="46"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5900,10 +5924,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="46"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5917,10 +5941,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="46"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -5934,10 +5958,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="46"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -5951,10 +5975,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="46"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -5968,10 +5992,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="46"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -5985,10 +6009,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="46"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -6002,10 +6026,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="46"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -6019,10 +6043,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="46"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6036,10 +6060,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="46"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -6053,10 +6077,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="46"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -6070,10 +6094,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="46"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6087,10 +6111,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="46"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6104,10 +6128,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="46"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6121,10 +6145,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="46"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6138,10 +6162,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="46"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6155,10 +6179,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="46"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6746,6 +6770,61 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6754,61 +6833,6 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
